--- a/reports/report.xlsx
+++ b/reports/report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Доп. доходы</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>2023-11-05T00:00:00Z</t>
+  </si>
+  <si>
+    <t>Заработная плата</t>
+  </si>
+  <si>
+    <t>Продажа</t>
+  </si>
+  <si>
+    <t>1500</t>
   </si>
   <si>
     <t>Образование</t>
@@ -396,6 +405,9 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -404,6 +416,9 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -412,6 +427,9 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -419,6 +437,9 @@
       </c>
       <c r="B4" t="s">
         <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -434,35 +455,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -470,10 +491,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
